--- a/va_facility_data_2025-02-20/Rhinelander VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rhinelander%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rhinelander VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rhinelander%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf4d9f70fcebb409c98fcedb9a2a80082"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R322c16ff7e5d4746998c44aacd97eb5a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5dfc43c77d964848af0da6ff85bbadce"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7808b21c2e944cbdaa326639cf20a45d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R29b9c644403344e1b19274e7e5f87552"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8ec70ab2f10640078119bef490196734"/>
   </x:sheets>
 </x:workbook>
 </file>
